--- a/Laptop setup/GUI/SpeciesSheet.xlsx
+++ b/Laptop setup/GUI/SpeciesSheet.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -426,12 +426,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -443,78 +443,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>w3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11-15</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>w4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16-20</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>w5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>21-25</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>w6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>26-30</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/Laptop setup/GUI/SpeciesSheet.xlsx
+++ b/Laptop setup/GUI/SpeciesSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -431,7 +431,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>w3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>w4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7-8</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>w5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>w6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>w7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13-14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>w8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15-16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>w9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17-18</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Laptop setup/GUI/SpeciesSheet.xlsx
+++ b/Laptop setup/GUI/SpeciesSheet.xlsx
@@ -429,11 +429,7 @@
           <t>1-2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -446,11 +442,7 @@
           <t>3-4</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -463,11 +455,7 @@
           <t>5-6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -480,11 +468,7 @@
           <t>7-8</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -497,11 +481,7 @@
           <t>9-10</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -514,11 +494,7 @@
           <t>11-12</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -531,11 +507,7 @@
           <t>13-14</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -548,11 +520,7 @@
           <t>15-16</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -565,11 +533,7 @@
           <t>17-18</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laptop setup/GUI/SpeciesSheet.xlsx
+++ b/Laptop setup/GUI/SpeciesSheet.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -421,153 +421,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>w1</t>
+          <t>wa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>w2</t>
+          <t>wb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>w3</t>
+          <t>wc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>w4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7-8</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>w5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>9-10</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>w6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>w7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>13-14</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>w8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>15-16</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>w9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>17-18</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
